--- a/For DB/fdsfd.xlsx
+++ b/For DB/fdsfd.xlsx
@@ -16,7 +16,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>Отчет по изменившимся группам здоровья</x:t>
+    <x:t>Отчет по группам здоровья для отделений</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Всего выбрано студентов: 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой по физкультуре «Основная»: 3 (60%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой по физкультуре «Подготовительная»: 0 (0%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой по физкультуре «СМГ»: 2 (40%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой по физкультуре «ЛФК»: 0 (0%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой по физкультуре «Освобожден»: 0 (0%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой здоровья «1-группа»: 5 (100%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой здоровья «2-группа»: 0 (0%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой здоровья «3-группа»: 0 (0%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой здоровья «4-группа»: 0 (0%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Медицинская группа: Основная</x:t>
   </x:si>
   <x:si>
     <x:t>ФИО Учащегося</x:t>
@@ -25,40 +58,67 @@
     <x:t>Группа</x:t>
   </x:si>
   <x:si>
-    <x:t>Текущая группа здоровья</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Текущая группа по физкультуре</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Предыдущая группа здоровья</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Предыдущая группа по физкультуре</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Дата изменения</x:t>
+    <x:t>Курс</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отделение</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Группа по физкультуре</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Группа здоровья</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Справка открыта</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Группа годна</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Васильева У. И.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ваы</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ПОИТ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Основная</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-группа</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Захаров К. Е.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сурков И. А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>мсчм</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Правоведение</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Медицинская группа: СМГ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Нечаева В. С.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>СМГ</x:t>
   </x:si>
   <x:si>
     <x:t>Щеглов Д. Н.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>####</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-группа</x:t>
-  </x:si>
-  <x:si>
-    <x:t>СМГ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Основная</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25.04.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Нечаева В. С.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -68,7 +128,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="3">
+  <x:fonts count="6">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -85,10 +145,32 @@
       <x:family val="2"/>
     </x:font>
     <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="14"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
       <x:b/>
       <x:i/>
       <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="12"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
@@ -102,7 +184,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="2">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -120,8 +202,25 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="3">
+  <x:cellStyleXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -131,18 +230,74 @@
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="14">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -440,104 +595,383 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G5"/>
+  <x:dimension ref="A1:H25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="20.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="16.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="26.710625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="33.710625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="32.710625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="38.710625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="17.710625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="25.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="20.710625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="16.710625" style="1" customWidth="1"/>
+    <x:col min="4" max="5" width="24.710625" style="1" customWidth="1"/>
+    <x:col min="6" max="6" width="20.710625" style="1" customWidth="1"/>
+    <x:col min="7" max="8" width="19.710625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7" ht="45" customHeight="1">
-      <x:c r="A1" s="1" t="s">
+    <x:row r="1" spans="1:8" ht="45" customHeight="1">
+      <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="1"/>
-      <x:c r="C1" s="1"/>
-      <x:c r="D1" s="1"/>
-      <x:c r="E1" s="1"/>
-      <x:c r="F1" s="1"/>
-      <x:c r="G1" s="1"/>
-    </x:row>
-    <x:row r="3" spans="1:7">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="B1" s="2"/>
+      <x:c r="C1" s="2"/>
+      <x:c r="D1" s="2"/>
+      <x:c r="E1" s="2"/>
+      <x:c r="F1" s="2"/>
+      <x:c r="G1" s="2"/>
+      <x:c r="H1" s="2"/>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
+      <x:c r="B3" s="2"/>
+      <x:c r="C3" s="2"/>
+      <x:c r="D3" s="2"/>
+      <x:c r="E3" s="2"/>
+      <x:c r="F3" s="2"/>
+      <x:c r="G3" s="2"/>
+      <x:c r="H3" s="2"/>
+    </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="A5" s="4" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="B5" s="5"/>
+      <x:c r="C5" s="5"/>
+      <x:c r="D5" s="5"/>
+      <x:c r="E5" s="5"/>
+      <x:c r="F5" s="5"/>
+      <x:c r="G5" s="5"/>
+      <x:c r="H5" s="5"/>
+    </x:row>
+    <x:row r="6" spans="1:8">
+      <x:c r="A6" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D3" s="2" t="s">
+      <x:c r="B6" s="5"/>
+      <x:c r="C6" s="5"/>
+      <x:c r="D6" s="5"/>
+      <x:c r="E6" s="5"/>
+      <x:c r="F6" s="5"/>
+      <x:c r="G6" s="5"/>
+      <x:c r="H6" s="5"/>
+    </x:row>
+    <x:row r="7" spans="1:8">
+      <x:c r="A7" s="4" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E3" s="2" t="s">
+      <x:c r="B7" s="5"/>
+      <x:c r="C7" s="5"/>
+      <x:c r="D7" s="5"/>
+      <x:c r="E7" s="5"/>
+      <x:c r="F7" s="5"/>
+      <x:c r="G7" s="5"/>
+      <x:c r="H7" s="5"/>
+    </x:row>
+    <x:row r="8" spans="1:8">
+      <x:c r="A8" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F3" s="2" t="s">
+      <x:c r="B8" s="5"/>
+      <x:c r="C8" s="5"/>
+      <x:c r="D8" s="5"/>
+      <x:c r="E8" s="5"/>
+      <x:c r="F8" s="5"/>
+      <x:c r="G8" s="5"/>
+      <x:c r="H8" s="5"/>
+    </x:row>
+    <x:row r="9" spans="1:8">
+      <x:c r="A9" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G3" s="2" t="s">
+      <x:c r="B9" s="5"/>
+      <x:c r="C9" s="5"/>
+      <x:c r="D9" s="5"/>
+      <x:c r="E9" s="5"/>
+      <x:c r="F9" s="5"/>
+      <x:c r="G9" s="5"/>
+      <x:c r="H9" s="5"/>
+    </x:row>
+    <x:row r="11" spans="1:8">
+      <x:c r="A11" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:7">
-      <x:c r="A4" s="0" t="s">
+      <x:c r="B11" s="5"/>
+      <x:c r="C11" s="5"/>
+      <x:c r="D11" s="5"/>
+      <x:c r="E11" s="5"/>
+      <x:c r="F11" s="5"/>
+      <x:c r="G11" s="5"/>
+      <x:c r="H11" s="5"/>
+    </x:row>
+    <x:row r="12" spans="1:8">
+      <x:c r="A12" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="B12" s="5"/>
+      <x:c r="C12" s="5"/>
+      <x:c r="D12" s="5"/>
+      <x:c r="E12" s="5"/>
+      <x:c r="F12" s="5"/>
+      <x:c r="G12" s="5"/>
+      <x:c r="H12" s="5"/>
+    </x:row>
+    <x:row r="13" spans="1:8">
+      <x:c r="A13" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="B13" s="5"/>
+      <x:c r="C13" s="5"/>
+      <x:c r="D13" s="5"/>
+      <x:c r="E13" s="5"/>
+      <x:c r="F13" s="5"/>
+      <x:c r="G13" s="5"/>
+      <x:c r="H13" s="5"/>
+    </x:row>
+    <x:row r="14" spans="1:8">
+      <x:c r="A14" s="4" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
+      <x:c r="B14" s="5"/>
+      <x:c r="C14" s="5"/>
+      <x:c r="D14" s="5"/>
+      <x:c r="E14" s="5"/>
+      <x:c r="F14" s="5"/>
+      <x:c r="G14" s="5"/>
+      <x:c r="H14" s="5"/>
+    </x:row>
+    <x:row r="16" spans="1:8" ht="22" customHeight="1">
+      <x:c r="A16" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
+      <x:c r="B16" s="7"/>
+      <x:c r="C16" s="7"/>
+      <x:c r="D16" s="7"/>
+      <x:c r="E16" s="7"/>
+      <x:c r="F16" s="7"/>
+      <x:c r="G16" s="7"/>
+      <x:c r="H16" s="7"/>
+    </x:row>
+    <x:row r="17" spans="1:8">
+      <x:c r="A17" s="8" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="s">
+      <x:c r="B17" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:7">
-      <x:c r="A5" s="0" t="s">
+      <x:c r="C17" s="9" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="D17" s="9" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E17" s="9" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F17" s="9" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G17" s="9" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H17" s="9" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:8">
+      <x:c r="A18" s="10" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B18" s="11" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C18" s="11">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D18" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E18" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F18" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G18" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H18" s="11" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:8">
+      <x:c r="A19" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B19" s="11" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C19" s="11">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D19" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E19" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F19" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G19" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H19" s="11" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:8">
+      <x:c r="A20" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B20" s="11" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C20" s="11">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D20" s="11" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E20" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F20" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G20" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H20" s="11" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:8">
+      <x:c r="A21" s="12"/>
+      <x:c r="B21" s="13"/>
+      <x:c r="C21" s="13"/>
+      <x:c r="D21" s="13"/>
+      <x:c r="E21" s="13"/>
+      <x:c r="F21" s="13"/>
+      <x:c r="G21" s="13"/>
+      <x:c r="H21" s="13"/>
+    </x:row>
+    <x:row r="22" spans="1:8" ht="22" customHeight="1">
+      <x:c r="A22" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B22" s="7"/>
+      <x:c r="C22" s="7"/>
+      <x:c r="D22" s="7"/>
+      <x:c r="E22" s="7"/>
+      <x:c r="F22" s="7"/>
+      <x:c r="G22" s="7"/>
+      <x:c r="H22" s="7"/>
+    </x:row>
+    <x:row r="23" spans="1:8">
+      <x:c r="A23" s="8" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="B23" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
+      <x:c r="C23" s="9" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D23" s="9" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E23" s="9" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F23" s="9" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G23" s="9" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H23" s="9" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:8">
+      <x:c r="A24" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B24" s="11" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C24" s="11">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D24" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E24" s="11" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F24" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G24" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H24" s="11" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:8">
+      <x:c r="A25" s="10" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B25" s="11" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C25" s="11">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D25" s="11" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E25" s="11" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F25" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G25" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H25" s="11" t="s">
+        <x:v>26</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="1">
-    <x:mergeCell ref="A1:G1"/>
+  <x:mergeCells count="13">
+    <x:mergeCell ref="A1:H1"/>
+    <x:mergeCell ref="A3:H3"/>
+    <x:mergeCell ref="A5:H5"/>
+    <x:mergeCell ref="A6:H6"/>
+    <x:mergeCell ref="A7:H7"/>
+    <x:mergeCell ref="A8:H8"/>
+    <x:mergeCell ref="A9:H9"/>
+    <x:mergeCell ref="A11:H11"/>
+    <x:mergeCell ref="A12:H12"/>
+    <x:mergeCell ref="A13:H13"/>
+    <x:mergeCell ref="A14:H14"/>
+    <x:mergeCell ref="A16:H16"/>
+    <x:mergeCell ref="A22:H22"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
